--- a/CalProc/Data/RogoCals.xlsx
+++ b/CalProc/Data/RogoCals.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyler.werne\Documents\Python\CalPRoc\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyler.werne\Documents\repos\DPF\DPF\CalProc\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80105545-2854-460E-8B6C-A6AC29BE23B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885EF6B3-EBAD-44F9-9D7A-B8530228CED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9650" yWindow="-21710" windowWidth="38620" windowHeight="21220" xr2:uid="{E84C704D-00B9-4E6B-8F27-53F5C4730A26}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E84C704D-00B9-4E6B-8F27-53F5C4730A26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>M</t>
   </si>
@@ -51,7 +51,46 @@
     <t>P</t>
   </si>
   <si>
-    <t>No Data</t>
+    <t>R</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Single</t>
   </si>
 </sst>
 </file>
@@ -87,8 +126,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8517DC8-18EC-433A-BBC9-CDAE12A2792D}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -414,47 +454,265 @@
     <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1">
+        <v>3.4135544844496402E-7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4.1072270804721101E-7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1">
+        <v>9.6418440026463802E-9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.05113894676013E-8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-4.1706001630230903E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.09624447879314E-8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1">
+        <v>-8.7919639395390793E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>6.1045401278340996E-9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-1.4702852968658599E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2.4449946427130001E-7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-1.7140972147736801E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1">
+        <v>7.3760492916776699E-9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-7.9496077540643305E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6.1045401278340996E-9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3.9855102188795301E-8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6.3958888055853104E-9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>-3.63638403918218E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3.9358381137682999E-7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-5.0746989809673899E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1">
+        <v>6.0151778806112604E-9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1">
+        <v>8.8105977445615293E-9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.14859181450462E-8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="1">
+        <v>8.2226783430096996E-9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B13">
         <f>(0.000000000652 + 0.00000000062633333)/2</f>
         <v>6.3916666500000001E-10</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13">
+        <v>-2.5813524969410902E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B14">
         <f>(0.000000000533924999 + 0.0000000005710249999)/2</f>
         <v>5.5247499944999996E-10</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="F14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>-3.7449474009154701E-9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B15">
         <f>(0.000000000570399999 + 0.00000000055549999 + 0.000000000504949999)/3</f>
         <v>5.4361666266666666E-10</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="F15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>-2.58681314047156E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>5.8183332999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B16" s="1">
+        <v>5.8183332999999999E-9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>-3.5500958619356098E-9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B17">
+        <f>(-0.0000000414098 + 0.00000004493396)/2</f>
+        <v>1.7620799999999985E-9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1">
+        <v>-3.0109574788046798E-9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>5</v>
+      </c>
+      <c r="B18" s="1">
+        <v>-7.4162461610480399E-10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="1">
+        <v>-3.0017110308246699E-9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="1">
+        <v>3.4323696602077199E-8</v>
       </c>
     </row>
   </sheetData>
